--- a/biology/Botanique/Belle_Amour/Belle_Amour.xlsx
+++ b/biology/Botanique/Belle_Amour/Belle_Amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Belle Amour' est un cultivar de rosier issu d'un croisement Rosa damascena (rose de Damas) x Rosa alba[1]. Cette rose ancienne a été redécouverte avant 1950 au couvent d'Elbeuf en Normandie[2],[3].
+'Belle Amour' est un cultivar de rosier issu d'un croisement Rosa damascena (rose de Damas) x Rosa alba. Cette rose ancienne a été redécouverte avant 1950 au couvent d'Elbeuf en Normandie,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson au port érigé est vigoureux, même en sol pauvre, avec un feuillage gris-verdâtre pouvant s'élever de 120 cm à 150 cm et parfois au-delà et d'une largeur de 90 cm à 120 cm. Ses fleurs semi-doubles (à 9-16 pétales[4]) ont un joli aspect de roses anciennes très chiffonné de couleur rose saumon avec des étamines jaunes bien visibles[5]. Elles embaument la myrrhe. La floraison abondante a lieu en juin. C'est une rose très résistante aux maladies[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson au port érigé est vigoureux, même en sol pauvre, avec un feuillage gris-verdâtre pouvant s'élever de 120 cm à 150 cm et parfois au-delà et d'une largeur de 90 cm à 120 cm. Ses fleurs semi-doubles (à 9-16 pétales) ont un joli aspect de roses anciennes très chiffonné de couleur rose saumon avec des étamines jaunes bien visibles. Elles embaument la myrrhe. La floraison abondante a lieu en juin. C'est une rose très résistante aux maladies.
 </t>
         </is>
       </c>
